--- a/public/fileexcel/batik.xlsx
+++ b/public/fileexcel/batik.xlsx
@@ -20,36 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">Batik Parang 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batik Parang 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batik Parang 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batik Parang 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batik Parang 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batik Parang 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batik Parang 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batik Parang 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batik Parang 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batik Parang 10</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Brendi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bribilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cakar Ayam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceplok Liring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinde Wilis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duro Gelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gendhagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grompol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenggrong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaka Kirana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
   </si>
 </sst>
 </file>
@@ -64,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -148,10 +179,10 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.72"/>
   </cols>
@@ -160,80 +191,80 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>5</v>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/fileexcel/batik.xlsx
+++ b/public/fileexcel/batik.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="236">
   <si>
     <t xml:space="preserve">Brendi</t>
   </si>
@@ -28,58 +28,706 @@
     <t xml:space="preserve">01</t>
   </si>
   <si>
+    <t xml:space="preserve">Pada jaman dahulu orang Jawa menyebutkan minuman keras buatan pabrik dengan sebutan Brendi. Waktu itu produk minuman keras pabrik masih dijualbebas dan biasanya konsumen bukan generasi muda melainkan orang dewasahingga orang tua. Difungsikan sebagai minuman penambah vitalitas danstamina, biasanya Brendi diminum 1 -2 sloki. Merk Whisky (masyarakat Jawatetap menyebutnya Brendi) simbolnya adalah bulatan 3 koin berjajar yangdidalamnya bergambar. Inilah awal ide dengan adanya motif nitik Bren</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bribilan</t>
   </si>
   <si>
     <t xml:space="preserve">02</t>
   </si>
   <si>
+    <t xml:space="preserve">Bribilan adalah istilah bahasa jawa yang artinya “sedikit demi sedikit”. Pesanyang ingin disampaikan bahwa suatu keberhasilan tidak mungkin akan tercapai secepat kilat tetapi akan melalui proses sedikit demi sedikit. Artinya jadilah manusia yang sabar dan tawakal .</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cakar Ayam</t>
   </si>
   <si>
     <t xml:space="preserve">03</t>
   </si>
   <si>
+    <t xml:space="preserve">Adalah simbol dari semangat menyongsong hari esok untuk mencari rejekiayam di pagi buta sudah mengais tanah untuk mendapatkan makanan. Pada upacara perkawinan gaya jogja biasanya dipakai oleh mempelai setelah siraman. Selain itu juga pada saat seorang istri sedang memiliki bayi, motif ini juga sering digunakan untuk menggendong bayi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ceplok Liring</t>
   </si>
   <si>
     <t xml:space="preserve">04</t>
   </si>
   <si>
+    <t xml:space="preserve">Ceplok adalah istilah dalam dunia batik. Penempatan ragam hias sec ara tidakberaturan dalam satu bidang.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cinde Wilis</t>
   </si>
   <si>
     <t xml:space="preserve">05</t>
   </si>
   <si>
-    <t xml:space="preserve">Duro Gelar</t>
+    <t xml:space="preserve">Cinde mempunyai arti kain sudra yang berbunga (bermotif) Wilis dalam bahasa Jawa artinya warna hijau. Jadi Cinde Wilis ini mempunyai makna kesuburan yang selalu identic dengan warna hijau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doro Gelar</t>
   </si>
   <si>
     <t xml:space="preserve">06</t>
   </si>
   <si>
+    <t xml:space="preserve">Doro dalam bahasa Jawa berarti burung Merpati, sedangkan gelar adalah membentangkan dan mengepakkan sayap (terbang). Makna yang hendak disampaikan yakni meski manusia akan terbang (menjelajah) kemana saja,namun kesetiaan pada pasangan adalah hal yang paling utama (ibarat burungmerpati yang setia pada satu pasangannya)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gendhagan</t>
   </si>
   <si>
     <t xml:space="preserve">07</t>
   </si>
   <si>
+    <t xml:space="preserve">Gendhagan yaitu wujud dari sebuah tabung yang biasanya untuk menyimpan benda -benda penting atau bertuah sebagai azimat. Jadi gendhang ini adalah simbol dari kehendak manusia bisa menyimpan sesuatu yang bersifat rahasia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grompol</t>
   </si>
   <si>
     <t xml:space="preserve">08</t>
   </si>
   <si>
+    <t xml:space="preserve">Adalah simbol dari berkumpul (menggerompol). Biasanya digunakan pada saat upacara Tarapan. Setelah anak perempuan menjalani upacara Tarapan dia dianggap memasuki masa remaja dewasa. Selain itu juga pada upacara inisiasi perkawinan dipakai setelah upacara siraman oleh keluarga, dengan harapan semua saudara dan handai taulan untuk bisa berkumpul pada upacara yang penting tersebut. Upacara setelah siraman adalah acara Midodaren</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jenggrong</t>
   </si>
   <si>
     <t xml:space="preserve">09</t>
   </si>
   <si>
-    <t xml:space="preserve">Jaka Kirana</t>
+    <t xml:space="preserve">Janggrong artinya sesuatu yang ada di atas atau tinggi. Motif ini mengajarkan bahwa manusia harus mampu menggantungkan cita-cita setinggi mungkin, tetapi semua yang akan menentukan adalah usaha dan kuasa Tuhan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaya Kirana</t>
   </si>
   <si>
     <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaya Kirana adalah Senapati Raja Angling Dharma dari kera jaan Malawapati. Adapun nama lain dari Jaya Kirana adalah Wijanarka. Cerita ini masuk dalam genre pewayangan Madya. Pesan yang ingin disampaikan adalah sifat kepahlawanan dari Jaya Kirana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaya Kusuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adalah nama salah satu anak Arjuna dalam cerita Mahabarata yang sangat taat pada perintah dan sebagai pahlawan muda yang disegani.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karawitan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adalah orkestra musik Jawa dengan instrumen yang sangat variatif dengan alat musik tiup, gesek, pukul, patik, dll. Untuk menghasilkan pada selaras dalam sebuah aransemen maka harus ada kerjasama yang harmoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kartiko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam istilah bahasa Jawa, Kartiko diartikan sebagai bintang dari para bintang. Makna yang hendak disampaikan pada motif ini adalah harapan supaya seorang pemimpin meskipun kecil, tetapi tetap menjadi pengikut oleh banyak orang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawung Nitik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawung adalah buah kolang-kaling berbentuk oval yang ditata per 4 buah yang selalu berkaitan satu sama lain secara berurutan dengan bagian tengah sebagai pusatnya. Simbol 4 penjuru mata angin dengan tengah sebagai pusat dalam istilah Jawa Papat Keblat Limo Pancer. Manusia hendaknya bisa mengekang hawa nafsu untuk menyatu dengan Tuhannya (Manunggaling Kawulo Gusti)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memiliki definisi arti yang sama dengan Krempel , yang berarti menyatu. Hanya memiliki sedikit perbedaan pada bentuk motifnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemukus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lintang kemukus adalah istilah Jawa untuk bintang berakar. Kemunculan lintang (bintang) Kemukus pada masyarakat Jawa dipercaya akan adanya bencana. Maka pesan yang ingin disampaikan dari motif batik Nitik Kemukus secara simbolis adalah bahwa manusia untuk bisa selalu waspada kapan saja dan dimana saja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klampok Arum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klampok Arum adalah salah satu jenis jambu air. Pada masyarakat Jawa ada kepercayaan apabila seseorang menanam jambu Klampok Arum dipercaya maka dia akan mendapatkan nama yang harum dan akan selalu dipandang baik oleh orang lain. Begitulah pesan yang ingin disampaikan oleh si pemakai motif nitik Klampok Arum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krembyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam bahasa Jawa, krembyah diartikan sebagai sesuatu yang besar namun tidak beraturan. Kebalikan dari Keket dan Krempel, motif krembyah didefinisikan sebagai pernyataan bahwa apabila seseorang ingin mencapai suatu tujuan tetapi tidak satu arah, maka niscaya akan berhasil. Dalam istilah Jawa Pating Krembyah berarti berserakan dan tidak menyatu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krempel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memiliki definisi arti yang sama dengan Keket , yang berarti menyatu. Apabila kita bersatu, apapun halangan atau masalah yang kita hadapi pasti dapat diselesaikan. Bersatu kita teguh, bercerai kita runtuh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuncup Krinthil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunga Kanthil adalah bunga yang sangat penting, artinya pada masyarakat Jawa arti Kanthil adalah kemanthil-manthil (bahasa Jawa) yang artinya akan selalu teringat pada sesuatu. Secara harafiah arti kemanthil-manthil dalam bahasa Indonesia adalah tergila-gila (semangat/terobsesi). Motif ini bermakna dalam meraih sesuatu (impian/tujuan) harus dilandasi dengan semangat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manggar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam masyarakat Jawa, Manggar dipercaya sebagai simbol kesetiaan. Manggar dihasilkan oleh pohon Kelapa yang merupakan jenis tanaman yang tidak mempunyai cabang dahan. Artinya dalam mahligai rumah tangga harus dengan niat hati yang lurus untuk tidak bercabang ke lain hati (Setia).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mawur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam bahasa Jawa, mawur mempunyai arti sesuatu yang tersebar berserakan atau tidak menjadi satu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mlinjon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di dalam tata bahasa Jawa, Mlinjon diartikan sebagai buah Melinjo yang berbentuk oval. Mlinjon adalah gambaran dari blumbang (kolam) yang identik dengan sifat air (dingin). Pasangan dari dingin adalah panas (Air dan Api). Motif ini mengingatkan secara normatif yakni jadilah manusia yang dapat menyingkapi segala sesuatu dengan hati yang dingin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagasari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motif Nagasari menggambarkan pohon nagasari, dimana dalam cerita Ramayana, tokoh Dewi Sinta dengan setia menunggu kedatangan Rama dibawah pohon nagasari. Melamba ngkan kesetiaan yang abadi. Diharapkan bagicalon pengantin dapat menjadi pasangan yang saling mencintai selamanya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuju Prono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuju prono dalam istilah Jawa artinya berbuatlah sesuatu yang betul-betul berniat baik, jangan hanya secara kebetulan. Bahwasannya harapan untuk bisa menjalani sesuatu dengan tujuan yang baik makan akan, mencapai hasil yang baik pula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oneng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam bahasa jawa, Oneng artinya gelisah/bingung. Artinya gelisahlah untuk menjadi manusia yang lebih baik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palang adalah bentuk sesuatu yang melintang, yang filosofinya diartikan sebagai tekad yang kuat dan demi kebenaran, maka halangan apapun (palang) harus dilalui dan jangan dihiraukan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rengganis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adalah nama salah satu putri dalam ceritera Menak, anak dari Raya Mukaji dari Kerajaan Mukadam. Simbol pahlawan putri yang cantik Jelita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sari Mulat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sari adalah inti, sedangkan mulat dalam bahasa jawa berarti mawas diri. Dari selembar motif kain nitik sari mulat dapat disampaikan pesan bahwa menjadi manusia harus selalu memiliki perilaku yang mawas diri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merupakan motif nitik pengembangan yang berwujud seperti Satlet (bahasa Jawa) atau Satelit (bahasa Indonesia).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Andong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adalah sejenis tanaman ada jenis yang berdaun merah dan ada yang berdaun hijau. Pada masyarakat jawa tanaman Andong Merah hanya digunakan sebagai tanaman pembatas dan tanaman pagar tetapi pada umumnya sering dimanfaatkan untuk tanaman kuburan. Dari motif Nitik Sekar Andong ini mempunyai makna walaupun suara duniawi semuanya serba kecukupan tetapi sebagai manusia harus ingat akan kematian.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Alum Dalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Arum Dalu akan mekar pada malam hari dan menyebarkan keharuman di sekelilingnya. Artinya sebagai manusia hendaklah berbuat kebaikan yang berguna terutama untuk masyarakat sekelilingnya tanpa memandang perbedaan yang ada. Ibarat dalam kegelapan malam pun kita harus arif menyikapinya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Bangah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil bentuk kelopak bunganya yang menyerupai bintang sebagai ide mencipta salah satu motif batik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Blimbing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil bentuk bunganya pada tanaman Belimbing sebagai ide mencipta salah satu motif batik yang filosofinya bertujuan untuk memancarkan kebaikan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Cengkeh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunga cengkeh dalam bahasa Jawa namanya adalah Polong. Polong dengan kata lain adalah Plong yang mempunyai arti lega/puas. Jadilah manusia yang harus puas dan berterima kasih atas apa yang sudah diberikan oleh Tuhan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Dangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam  bahasa  Jawa  Halus  artinya  sembuh.  Diambil  dari  namanya,  motif  ini mempunyai harapan untuk kesembuhan atau harapan ke depan yang lebih baik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Dlima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil dari bentuk bunga Delima sebagai ide mencipta salah satu motif batik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Duku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil dari bentuk bunga duku sebagai ide mencipta salah satu motif batik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Duren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Duren dalam bahasa Jawa namanya Dlongop ini sebagai gambaran jadilah manusia yang aktif dan kreatif, jangan hanya dlongop (Bahasa Indonesia: Pasif). Ibarat seperti bunga Duren.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Gambir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Gambir adalah bunga berwarna putih bersih dan sangat harum. Simbol Sekar Gambir berarti kesucian hati yang akan menimbulkan hal yang harum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Gayam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gaya dalam masyarakat jawa mempunyai makna filosofis Gayuh yang berarti mencapai cita-cita dan Ayem yang berarti tenteram dan damai.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Gudhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebangsa kacang-kacangan yang daunnya bisa dimanfaatkan untuk pupuk organik dan buahnya untuk dimasak pepes. Diambil bentuk bunganya sebagai ide untuk mencipta salah satu motif.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Jagung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam bahasa Jawa, bunga Jagung disebut Sinuwun. Kata sinuwun dalam budaya Jawa memiliki arti sesuatu yang ditinggikan/dihormati. Pesan yang ingin disampaikan dari motif batik Nitik sekar Jagung adalah sebagai orang yang lebih muda hendaknya menghormati atau meninggikan derajat orang yang lebih tua.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Jati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanya sebagai ide dari bentuk bunga jail. Diambil bentuk bunganya sebagai ide mencipta salah satu motif batik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Jeruk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Jeruk dalam bahasa Jawa bernama Alon (Bahasa Indonesia=Pelan), yang berarti manusia hendaknya berjalan pelan sesuai dengan haknya. Janganlah berbuat secara grusa-grusu (terburu-buru) yang akan menghasilkan  sesuatu yang kurang maksimal, apalagi sampai merebut hak orang lain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Keben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adalah sejenis tanaman laut. Keben menjadi salahsatu nama Regol (Gerbang) utama di Keraton Yogyakarta karena dihalamannya berdiri pohon Keben.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Kemuning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam masyarakat Jawa, pohon Kemuning termasuk bunganya merupakan jenis tanaman yang mempunyai makna khusus. Di Kraton Yogyakarta tanaman ini selalu ada ditanam di Komplek Kraton. Kemuning berasal dari kata ning yang mempunyai arti konsentrasi penuh antara rasa dan penalara harus seimbang.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Kenanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunga Kenanga selalu ada pada setiap upacara ritual yang menggunakan bunga. Bunga Kenanga dimanfaatkan karena aroma keharuman yang sangat khas. Mempunyai makna agar kita selalu mendapat keharuman dari para leluhur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Kenikir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanya dilihat dari bentuk bunga Kenikir sebagai ide untuk membuat salahsatu ragam motif nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Kenthang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namanya diambil dari bentuk bunga kenthang sebagai ide membuat salah satu bentuk motif Nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Kepel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kepel adalah buah yang menempel pada pohonnya. Kepel dalam bahasa Jawa artinya genggaman tangan. Kepel melambangkan menyatunya niat dengan kerja dengan kata lain jadilah manusia yang selalu bersamanya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Ketongkeng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adalah sejenis anggrek yang bunganya menyerupai Kalajengking (Jawa: Ketongkeng)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Lintang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lintang  berarti  bintang.  Bunga  dari  bintang  adalah  sinar,  maknanya  jadilah manusia yang besar layaknya bintang, namun bermanfaat untuk orang lain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Manggis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanya dilihat dari bentuk bunga Manggis sebagai ide untuk membuat salahsatu ragam motif nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Mlathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Mlathi adalah simbol kesucian. Hanya dilihat dari bentuk bunga Melati sebagai ide untuk membuat salahsatu ragam motif nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Motif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunga menur berwarna putih bersih dan saling menumpuk. Warna putih menyimbolkan kesucian menumpuk banyak. Artinya berbuatlah yang baik sebanyak-banyaknya tanpa pamrih.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Mindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil bentuk bunganya sebagai ide membuat salah satu bentuk motif Nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Mrica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namanya diambil dari bentuk bunganya sebagai ide membuat salahsatu bentuk motif Nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Mundhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunga mundhu dalam bahasa Jawa bernama Kocok / meped. Diambil bentuk bunganya sebagai ide untuk mencipta salah satu motif batik Nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Nangka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam Bahasa Jawa namanya angkup. Kalau dilihat dari luar buah nangka sangatlah tidak menarik tetapi buahnya sangatlah manis. Dalam melihat sesuatu janganlah dipandang dari luar (penampilan) saja.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Pacar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebagai wujud bunga pacar yang digunakan sebagai persembahyangan untuk umat Hindu-Budha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Pace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil bentuk bunga Pace sebagai ide membuat salah satu bentuk motif Nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Pala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil dari bentuk bunga Pala sebagai ide untuk membuat salah satu motif batik Nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Pijetan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil  dari  bentuk  bunga  Pijetan  yang  biasa  digunakan  sebagai  ide  untuk membuat salah satu motif batik Nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Pudhak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pudhak adalah nama bunga dari tanaman Pandan Laut yang berduri. Bunga Pudhak mempunyai aroma wangi yang lembut (tidak menyengat) dan pada sore hari wangi itu akan semakin terasa. Ibarat sifat manusia semakin tinggi strata sosialnya harus diimbangi dengan kharisma semakin arif dan bijaksana ibarat bunga Pudhak yang semakin sore akan semakin tercium aroma kelembutannya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Rambutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil dari bentuk bunga Rambutan dan buah Rambutan sebagai ide untuk membuat salah satu motif batik Nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Randhu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunga Randu dengan aroma yang cukup wangi tapi kayu maupun yang lainnya sangat kurang bermanfaat. Hanya kapuknya yang bisa dimanfaatkan untuk isi kasur, bantal, maupun guling. Jadi falsafah dari sekar (bunga) Randu adalah sekurang-kurangnya apapun apabila kita bisa memanfaatkan dari sisi positifnya pasti ada manfaat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Sewo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam bahasa Jawa bunga Sawo bernama “Rikuh” yang dalam bahasa Indonesia berarti “Tidak Enakan”. Motif ini mempunyai makna dan simbolnya yang ingin disampaikan yaitu hendaknya sebagai manusia janganlah serakah, harus melihat mana yang hak dan mana yang bukan hak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Soka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Soka adalah bunga Soka, adapun juga yang menyebut Angsoka/Asoka. Asoka dalam bahasa Sanskerta mempunyai arti bebas dari kesedihan. Soka itu sendiri mempunyai arti sedih yaitu hampa. Hal ini sangat relevan pada cerita epos Ramayana di mana dewi Shinta yang diculik oleh Raja Rahwana sangatlah bersedih. Kemudian dewi Shinta ditawan di taman Keputren yang bernama Taman Arga Soka. Soka adalah sedih dan Arga adalah Gunung. Jadi artinya tempat ini adalah tempat sedih yang teramat sangat, ibarat sebesar gunung. Maka dengan makna yang terkandung dalam motif nitik Wora-Wari Rumpuk diharapkan sedih itu sudah pasti pernah dialami oleh setiap manusia tetapi janganlah bersedih yang berlebihan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Srengenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srengenge adalah Matahari (Bahasa Indonesia). Buka Srengenge menyimbolkan penerang dunia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Tanjung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adalah bunga tanjung yang apabila berbunga, wanginya semerbak ibarat seorang pemuda/pemudi nan identik dengan masa akhil balik yang begitu harum dan semangat dengan keharumannya, menyongsong masa depan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekar Tebu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam bahasa Jawa, bunga Tebu namanya Gleges. Adalah sifat yang kurang bagus dalam budaya Jawa yaitu tidak sesuai antara penampilan dan kenyataan. Jadilah manusia yang tegas dan apa adanya, jangan Gleges seperti bunga Tebu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Gading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bunga Sri Gading merupakan simbol dari kesetaraan dan kerukunan. Krisna membawa pohon untuk istrinya Dewi Rukmini dan dia sadar pasti istrinya yang lain yaitu Sathyabama akan iri. Maka Krisna punya kebijaksanaan yakni menanam bunga di perbatasan pekarangan Rukmini dan Sathyabama dan bersama-sama menikmati keharuman bunganya. Sejak saat itu Rukmini dan Sathyabama amat rukun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Taman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam bahasa Jawa Sri berarti “Raja” dan Taman berarti adalah area yang merupakan tempat penyegar baik di dalam maupun luar ruangan. Sri taman mempunyai makna filosofis hendaknya jadilah pemimpin untuk bisa membuat rakyatnya merasa nyaman, aman, tenteram dan damai. Ibarat seorang raja ada di sekeliling taman bunga yang harum. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanjung Gunung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timunan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diambil dari bentuk bunga dan biji Timun sebagai ide untuk membuat salah satu motif batik Nitik.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truntum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalam bahasa Jawa tumaruntum mempunyai arti menurun ke generasi berikutnya. Bentuk dari truntum menggambarkan sinar bintang jadi makna dari truntum adalah dengan sinar yang terang, kehidupan yang mulia dapat diturunkan pada generasi berikutnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truntum Kurung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sama seperti motif truntum pada umumnya, dalam bahasa Jawa tumaruntum mempunyai arti menurun ke generasi berikutnya. Bentuk dari truntum menggambarkan sinar bintang jadi makna dari truntum adalah dengan sinar yang terang, kehidupan yang mulia dapat diturunkan pada generasi berikutnya.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wora Wari Rumpuk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pada umumnya bunga Wora-Wari yang banyak ditanam di masyarakat Jawa adalah warna merah. Warna merah dari bunga Wora-Wari adalah simbol cinta- gairah-semangat. Selain warna merah, bunga ini juga ada yang berwarna putih, kuning,  merah muda, ungu.</t>
   </si>
 </sst>
 </file>
@@ -89,12 +737,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,6 +757,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -154,9 +807,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -176,95 +837,884 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C79" activeCellId="0" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.76"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>11</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>13</v>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>19</v>
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
